--- a/datasets/appartementen_df_complete.xlsx
+++ b/datasets/appartementen_df_complete.xlsx
@@ -14089,7 +14089,7 @@
         </is>
       </c>
       <c r="K77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         </is>
       </c>
       <c r="K92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         </is>
       </c>
       <c r="K104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         </is>
       </c>
       <c r="K138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -31535,7 +31535,7 @@
         </is>
       </c>
       <c r="K173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>

--- a/datasets/appartementen_df_complete.xlsx
+++ b/datasets/appartementen_df_complete.xlsx
@@ -27205,7 +27205,7 @@
         </is>
       </c>
       <c r="K153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="K156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
